--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -11,13 +11,133 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$M$7</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作子项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位
+或部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国三相表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TC功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期(工作日)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过流功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付费功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配合部门
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成的影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成回顾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +153,77 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,19 +231,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,12 +695,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="21">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <v>42302</v>
+      </c>
+      <c r="H5" s="12">
+        <v>42314</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>42317</v>
+      </c>
+      <c r="H6" s="11">
+        <v>42318</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>42319</v>
+      </c>
+      <c r="H7" s="11">
+        <v>42319</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:M7">
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="14">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
